--- a/biology/Médecine/Paul_Landowski_(médecin)/Paul_Landowski_(médecin).xlsx
+++ b/biology/Médecine/Paul_Landowski_(médecin)/Paul_Landowski_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_Landowski_(m%C3%A9decin)</t>
+          <t>Paul_Landowski_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paweł Landowski, né à Łęczyca le 4 juin 1843, mort à Paris le 21 avril 1894 (à 50 ans), est un médecin polonais, spécialiste en gynécologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_Landowski_(m%C3%A9decin)</t>
+          <t>Paul_Landowski_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Wincenty Landowski (1814-1873)[1], docteur en médecine, et Rosalie Szanowska. Avec son frère ainé Edward Landowski, ils étudient la médecine à Lublin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Wincenty Landowski (1814-1873), docteur en médecine, et Rosalie Szanowska. Avec son frère ainé Edward Landowski, ils étudient la médecine à Lublin.
 En 1863, après l'Insurrection de Janvier, Edward et Paweł, et leurs parents émigrent vers la Suisse, puis arrivent en France.
 En mai 1873, son père meurt à Paris.
-En 1882, son frère Edward et son épouse contractent une maladie à Alger, leurs enfants, Władysław, Henryk, Paweł, Józef et Franciszka sont rapatriés en France. Célibataire, il élève les enfants jusqu'à sa mort, le 21 avril 1894[2].
+En 1882, son frère Edward et son épouse contractent une maladie à Alger, leurs enfants, Władysław, Henryk, Paweł, Józef et Franciszka sont rapatriés en France. Célibataire, il élève les enfants jusqu'à sa mort, le 21 avril 1894.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_Landowski_(m%C3%A9decin)</t>
+          <t>Paul_Landowski_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Utérus et vagin doubles sur le vivant, article de 1886 paru dans les Bulletins et mémoires de la société d'anthropologie de Paris.</t>
         </is>
